--- a/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.053233023226568</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7160600251075468</v>
+        <v>0.7160600251075455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2951796969130351</v>
@@ -649,7 +649,7 @@
         <v>-0.2092855569042217</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08535079203691731</v>
+        <v>0.08535079203691714</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.853201074578382</v>
+        <v>-2.209488085036076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.005771698539295</v>
+        <v>-1.626595102548992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.29749059032794</v>
+        <v>-4.40397691505197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.531953054180431</v>
+        <v>-2.364741371716196</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3415621491644734</v>
+        <v>-0.3661522639722532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3330747876865688</v>
+        <v>-0.2613855765964242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.653208304143895</v>
+        <v>-0.6526094482601685</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2579785032154012</v>
+        <v>-0.2343991863195227</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.693660196670022</v>
+        <v>4.651071053535095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.461207275887383</v>
+        <v>6.411631725669498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.925521922291986</v>
+        <v>1.769262885972617</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.172179928490888</v>
+        <v>4.152702345422526</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.505623004314007</v>
+        <v>1.330956388495961</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.633673888300277</v>
+        <v>1.665566706364842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5518665028004731</v>
+        <v>0.5734906318964609</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6715573463491373</v>
+        <v>0.62583224731304</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.571857996876759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.01469579311438735</v>
+        <v>-0.01469579311438457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.196030355292888</v>
@@ -749,7 +749,7 @@
         <v>0.4009769783027916</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.001525968100368119</v>
+        <v>-0.001525968100367831</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.072487546724808</v>
+        <v>0.9603465441477905</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6495707612056317</v>
+        <v>-0.8156056750181461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.463586792696143</v>
+        <v>-1.301983161744595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.140323479542754</v>
+        <v>-3.910464694471795</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08169386151946884</v>
+        <v>0.1033739650148538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1084405863720029</v>
+        <v>-0.1334328219061851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1870791391315473</v>
+        <v>-0.1557945505682121</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3288068915736418</v>
+        <v>-0.3339725349987259</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.910084260075879</v>
+        <v>8.118417679748969</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.639226450063701</v>
+        <v>8.185100661433989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.459433192272555</v>
+        <v>6.320362688433584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.753230103831737</v>
+        <v>3.704405187495485</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.632277300067042</v>
+        <v>3.902917053145299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.007333840808542</v>
+        <v>1.8092717114623</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.325679368256218</v>
+        <v>1.471197861682411</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4980561851375751</v>
+        <v>0.4854553361894142</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.127362877865209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.237147767074341</v>
+        <v>2.237147767074343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.380079087802277</v>
@@ -849,7 +849,7 @@
         <v>0.6219957296166853</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1750178865302364</v>
+        <v>0.1750178865302367</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.940985442944445</v>
+        <v>2.122001732784352</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.14882637149827</v>
+        <v>-2.107607473440788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1637128176758453</v>
+        <v>-0.662928919019363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.741103439390496</v>
+        <v>-3.097734196822385</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.231028805292997</v>
+        <v>0.3299246561854735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2167606108331116</v>
+        <v>-0.2148080723851749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03628120064727271</v>
+        <v>-0.1086590053271629</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1952102581968241</v>
+        <v>-0.2191330514144007</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.63757191583468</v>
+        <v>13.36317832902714</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.193926191324376</v>
+        <v>7.065825003687158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.20679596145207</v>
+        <v>11.94961025185322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.779070167920435</v>
+        <v>7.730963557508656</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.129808248563075</v>
+        <v>3.383334895997204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9218704993189003</v>
+        <v>0.916802613402942</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.754549359223689</v>
+        <v>1.762625262785053</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7073330632433356</v>
+        <v>0.7218648024758055</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.674754263786864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.718189042777578</v>
+        <v>1.718189042777575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2937166973814495</v>
@@ -949,7 +949,7 @@
         <v>0.2046174069694058</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1440878732298147</v>
+        <v>0.1440878732298144</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5199458401606627</v>
+        <v>-0.6009425550661582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.04755974376699074</v>
+        <v>0.2718205159218933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9801685974827903</v>
+        <v>-0.8351770890012578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.110755100784479</v>
+        <v>-1.098886786680751</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07729565515147548</v>
+        <v>-0.0889372251198919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.004355347458729618</v>
+        <v>0.02010533297079128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1154078853839394</v>
+        <v>-0.09270508731496793</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07999184060532817</v>
+        <v>-0.0846923216006238</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.269178676609206</v>
+        <v>4.175009753060686</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.144181210723661</v>
+        <v>6.582257104398965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.415749426536594</v>
+        <v>4.477569769406534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.84666923721961</v>
+        <v>4.711953963235963</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8095867102490993</v>
+        <v>0.7821819689251178</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7025393761655867</v>
+        <v>0.7405819908730963</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6085546271791845</v>
+        <v>0.6344854935231338</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4642596580628148</v>
+        <v>0.4431628045135997</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5380415816535393</v>
+        <v>0.2865672741553299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.345400632780632</v>
+        <v>5.949098791603103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.188152598371943</v>
+        <v>5.046671157000655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.911145190427928</v>
+        <v>5.348428347851314</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04177894557950724</v>
+        <v>0.01515916422986857</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6473833540065171</v>
+        <v>0.5610662517103177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4279992257300468</v>
+        <v>0.4197719343815263</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3905386538728905</v>
+        <v>0.4202481901807266</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.271518313306169</v>
+        <v>7.174298686904937</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.2919613124114</v>
+        <v>13.82257832279399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.76539655226334</v>
+        <v>12.85420409091733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.60011955866559</v>
+        <v>12.01467698631513</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.314944325328811</v>
+        <v>2.20751532622024</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.079524568653705</v>
+        <v>2.155532806966362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.537611990864591</v>
+        <v>1.612735091615554</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.375164748063645</v>
+        <v>1.472574104187181</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.58357911567322</v>
+        <v>2.90189597129987</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.066539010642437</v>
+        <v>3.780135125245906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.163461415931376</v>
+        <v>6.37146505264451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.843604489011614</v>
+        <v>3.55113201293117</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4186990511652067</v>
+        <v>0.4791604044442084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4331367184097715</v>
+        <v>0.4248167430327283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.290728707607234</v>
+        <v>1.16966968936427</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2634539657921976</v>
+        <v>0.2855551803825881</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.788132130756856</v>
+        <v>8.014435005146904</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.41960166440429</v>
+        <v>11.11983983335416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.87133118279977</v>
+        <v>11.931321168713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.57385497549656</v>
+        <v>13.60418281687894</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.10212096974483</v>
+        <v>4.072418377146251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.477915527801119</v>
+        <v>3.645964145429372</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>10.55648751897611</v>
+        <v>10.62214419359279</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.629441327736246</v>
+        <v>3.597885483579032</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.386416886551022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.985834436260913</v>
+        <v>3.985834436260914</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6704513472129559</v>
@@ -1249,7 +1249,7 @@
         <v>0.5929215758467016</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.377550763127879</v>
+        <v>0.3775507631278792</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.088672024504261</v>
+        <v>2.192003403151279</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.700210618679786</v>
+        <v>3.659583236083334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.123603641748663</v>
+        <v>2.809499846163517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.461603552055798</v>
+        <v>2.294499647574697</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3592250371497064</v>
+        <v>0.3795092667886151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4036698157668822</v>
+        <v>0.4121221308065741</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3821937798127275</v>
+        <v>0.3380521802219005</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2157018238627379</v>
+        <v>0.2010322676307652</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.674307012080238</v>
+        <v>4.663939993705518</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.79105793936952</v>
+        <v>6.659977151494881</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.972042306678189</v>
+        <v>5.709291430079105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.347353359304493</v>
+        <v>5.495067838402784</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.019582551852926</v>
+        <v>1.035945767129291</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9077659048953945</v>
+        <v>0.8821413138674616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8860686165010671</v>
+        <v>0.8429587650037347</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5597735231700762</v>
+        <v>0.5643522924330117</v>
       </c>
     </row>
     <row r="25">
